--- a/data/trans_orig/P36BPD04_R2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>106594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89682</v>
+        <v>87810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126756</v>
+        <v>125893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1935901873986619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1628751281357178</v>
+        <v>0.159475137377875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2302076432896452</v>
+        <v>0.2286389382874017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -762,19 +762,19 @@
         <v>112979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97077</v>
+        <v>97969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130392</v>
+        <v>129658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2313201112418633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1987599331746152</v>
+        <v>0.20058674264207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2669711159705284</v>
+        <v>0.2654686672027771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -783,19 +783,19 @@
         <v>219574</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196454</v>
+        <v>196411</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244039</v>
+        <v>246922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2113256912488828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1890742432252466</v>
+        <v>0.1890331133054793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2348726049540453</v>
+        <v>0.2376472879155966</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>444024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423862</v>
+        <v>424725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>460936</v>
+        <v>462808</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8064098126013381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.769792356710355</v>
+        <v>0.7713610617125984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8371248718642822</v>
+        <v>0.840524862622125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>523</v>
@@ -833,19 +833,19 @@
         <v>375432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>358019</v>
+        <v>358753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391334</v>
+        <v>390442</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7686798887581368</v>
+        <v>0.7686798887581365</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7330288840294721</v>
+        <v>0.7345313327972218</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8012400668253848</v>
+        <v>0.7994132573579295</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>966</v>
@@ -854,19 +854,19 @@
         <v>819455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>794990</v>
+        <v>792107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>842575</v>
+        <v>842618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7886743087511173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7651273950459547</v>
+        <v>0.7623527120844034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8109257567747534</v>
+        <v>0.8109668866945206</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>93801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75084</v>
+        <v>76982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112367</v>
+        <v>113138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.194118826223784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1553848733128157</v>
+        <v>0.1593125716228173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2325428032338503</v>
+        <v>0.2341366578716249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -979,19 +979,19 @@
         <v>91940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78660</v>
+        <v>77788</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106654</v>
+        <v>108680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2172792393133816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1858935144604294</v>
+        <v>0.1838341563290872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25205074820757</v>
+        <v>0.2568391102065885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -1000,19 +1000,19 @@
         <v>185741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165359</v>
+        <v>163571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211811</v>
+        <v>211397</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2049315467208362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1824439834695214</v>
+        <v>0.1804717615369475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.233695939086902</v>
+        <v>0.2332381211105255</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>389411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370845</v>
+        <v>370074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408128</v>
+        <v>406230</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8058811737762159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7674571967661498</v>
+        <v>0.7658633421283757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8446151266871843</v>
+        <v>0.8406874283771828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -1050,19 +1050,19 @@
         <v>331203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316489</v>
+        <v>314463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344483</v>
+        <v>345355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7827207606866183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7479492517924298</v>
+        <v>0.7431608897934118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8141064855395705</v>
+        <v>0.8161658436709129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -1071,19 +1071,19 @@
         <v>720614</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>694544</v>
+        <v>694958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>740996</v>
+        <v>742784</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.795068453279164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7663040609130981</v>
+        <v>0.7667618788894743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8175560165304787</v>
+        <v>0.8195282384630526</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>110484</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92452</v>
+        <v>91770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132198</v>
+        <v>131083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2342683171605598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1960350566743389</v>
+        <v>0.1945879711274056</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2803110693546125</v>
+        <v>0.2779462545767944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -1196,19 +1196,19 @@
         <v>56471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45830</v>
+        <v>46409</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67329</v>
+        <v>67346</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3021009946126038</v>
+        <v>0.3021009946126037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2451730810363893</v>
+        <v>0.2482702342170883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.36018750387272</v>
+        <v>0.3602734768460229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -1217,19 +1217,19 @@
         <v>166955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143323</v>
+        <v>145973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188786</v>
+        <v>188895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2535228265242487</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2176370078763619</v>
+        <v>0.2216615540811364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2866735684267072</v>
+        <v>0.2868389871022847</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>361128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339414</v>
+        <v>340529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>379160</v>
+        <v>379842</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7657316828394402</v>
+        <v>0.76573168283944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7196889306453869</v>
+        <v>0.7220537454232056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8039649433256612</v>
+        <v>0.8054120288725942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -1267,19 +1267,19 @@
         <v>130458</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119600</v>
+        <v>119583</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141099</v>
+        <v>140520</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6978990053873962</v>
+        <v>0.6978990053873961</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6398124961272799</v>
+        <v>0.639726523153977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7548269189636105</v>
+        <v>0.7517297657829115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>580</v>
@@ -1288,19 +1288,19 @@
         <v>491585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>469754</v>
+        <v>469645</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>515217</v>
+        <v>512567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7464771734757514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7133264315732929</v>
+        <v>0.7131610128977154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7823629921236379</v>
+        <v>0.7783384459188636</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>239815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209196</v>
+        <v>208402</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>272638</v>
+        <v>271095</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2120891520325505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1850108515084445</v>
+        <v>0.1843083310493252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2411180593686065</v>
+        <v>0.2397529724767681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>259</v>
@@ -1413,19 +1413,19 @@
         <v>167625</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147696</v>
+        <v>148569</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189234</v>
+        <v>188372</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1948951810221006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1717237993613235</v>
+        <v>0.1727380057650021</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2200196262050446</v>
+        <v>0.2190168102610695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>495</v>
@@ -1434,19 +1434,19 @@
         <v>407440</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>372036</v>
+        <v>370141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>445016</v>
+        <v>446173</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2046609032184226</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1868772888141736</v>
+        <v>0.1859253330551235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2235358315910909</v>
+        <v>0.2241168216221862</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>890910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>858087</v>
+        <v>859630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921529</v>
+        <v>922323</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7879108479674494</v>
+        <v>0.7879108479674495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7588819406313934</v>
+        <v>0.760247027523232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8149891484915556</v>
+        <v>0.8156916689506748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>969</v>
@@ -1484,19 +1484,19 @@
         <v>692455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670846</v>
+        <v>671708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>712384</v>
+        <v>711511</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8051048189778992</v>
+        <v>0.8051048189778993</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7799803737949551</v>
+        <v>0.7809831897389305</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8282762006386765</v>
+        <v>0.827261994234998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1850</v>
@@ -1505,19 +1505,19 @@
         <v>1583365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1545789</v>
+        <v>1544632</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1618769</v>
+        <v>1620664</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7953390967815773</v>
+        <v>0.7953390967815774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7764641684089091</v>
+        <v>0.775883178377814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8131227111858264</v>
+        <v>0.8140746669448766</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>112521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90913</v>
+        <v>92719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135164</v>
+        <v>138143</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1984914437382312</v>
+        <v>0.1984914437382311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1603734752579523</v>
+        <v>0.1635603361685252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2384347294115963</v>
+        <v>0.2436896516558764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>240</v>
@@ -1630,19 +1630,19 @@
         <v>156283</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137557</v>
+        <v>138923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176311</v>
+        <v>176426</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1882237675580026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1656706644174326</v>
+        <v>0.1673152236333547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2123449474463222</v>
+        <v>0.2124830576949912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>337</v>
@@ -1651,19 +1651,19 @@
         <v>268805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239342</v>
+        <v>239604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300523</v>
+        <v>299374</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1923896770746839</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.171302784394807</v>
+        <v>0.1714904658824501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.21509152340188</v>
+        <v>0.2142690735257429</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>454361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>431718</v>
+        <v>428739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475969</v>
+        <v>474163</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8015085562617689</v>
+        <v>0.8015085562617686</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7615652705884036</v>
+        <v>0.7563103483441237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8396265247420477</v>
+        <v>0.8364396638314747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1049</v>
@@ -1701,19 +1701,19 @@
         <v>674023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>653995</v>
+        <v>653880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>692749</v>
+        <v>691383</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8117762324419974</v>
+        <v>0.8117762324419975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7876550525536778</v>
+        <v>0.7875169423050088</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8343293355825673</v>
+        <v>0.8326847763666454</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1498</v>
@@ -1722,19 +1722,19 @@
         <v>1128383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1096665</v>
+        <v>1097814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1157846</v>
+        <v>1157584</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8076103229253163</v>
+        <v>0.8076103229253161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7849084765981197</v>
+        <v>0.7857309264742572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.828697215605193</v>
+        <v>0.8285095341175498</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>46433</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27228</v>
+        <v>28789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70662</v>
+        <v>72862</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1957304651954292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1147772387256456</v>
+        <v>0.1213544241412595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2978654500164649</v>
+        <v>0.307138676325925</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>224</v>
@@ -1847,19 +1847,19 @@
         <v>155790</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>136377</v>
+        <v>135230</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>181279</v>
+        <v>180360</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1846117696260317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1616066478649993</v>
+        <v>0.1602482018008471</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2148159115580834</v>
+        <v>0.213726504471638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>242</v>
@@ -1868,19 +1868,19 @@
         <v>202223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175126</v>
+        <v>172643</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234835</v>
+        <v>235689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1870515451934211</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1619871407502783</v>
+        <v>0.1596906397684547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2172163111037003</v>
+        <v>0.2180068482729136</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>190795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166566</v>
+        <v>164366</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210000</v>
+        <v>208439</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8042695348045709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.702134549983535</v>
+        <v>0.6928613236740748</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8852227612743545</v>
+        <v>0.8786455758587406</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>934</v>
@@ -1918,19 +1918,19 @@
         <v>688091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>662602</v>
+        <v>663521</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>707504</v>
+        <v>708651</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8153882303739685</v>
+        <v>0.8153882303739683</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7851840884419165</v>
+        <v>0.7862734955283619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8383933521350003</v>
+        <v>0.8397517981991528</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1028</v>
@@ -1939,19 +1939,19 @@
         <v>878886</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>846274</v>
+        <v>845420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>905983</v>
+        <v>908466</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8129484548065788</v>
+        <v>0.812948454806579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7827836888962995</v>
+        <v>0.7819931517270862</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8380128592497217</v>
+        <v>0.8403093602315451</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>709647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>657664</v>
+        <v>655960</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>769596</v>
+        <v>765053</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2062761248966117</v>
+        <v>0.2062761248966118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1911659329651282</v>
+        <v>0.1906708031250165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2237019626474484</v>
+        <v>0.2223812896950882</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1104</v>
@@ -2064,19 +2064,19 @@
         <v>741090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>699747</v>
+        <v>699622</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>783406</v>
+        <v>782822</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2040024758432052</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1926218095483973</v>
+        <v>0.1925875103380779</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2156510897558195</v>
+        <v>0.2154902586470892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1768</v>
@@ -2085,19 +2085,19 @@
         <v>1450737</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1383193</v>
+        <v>1382199</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1520209</v>
+        <v>1519811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.205108364726793</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1955589324908189</v>
+        <v>0.1954183837308608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2149304614744273</v>
+        <v>0.2148742283060925</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2730629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2670680</v>
+        <v>2675223</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2782612</v>
+        <v>2784316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7937238751033883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7762980373525517</v>
+        <v>0.777618710304912</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8088340670348718</v>
+        <v>0.8093291968749836</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4135</v>
@@ -2135,19 +2135,19 @@
         <v>2891660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2849344</v>
+        <v>2849928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2933003</v>
+        <v>2933128</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7959975241567948</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7843489102441804</v>
+        <v>0.784509741352911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8073781904516025</v>
+        <v>0.8074124896619221</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6769</v>
@@ -2156,19 +2156,19 @@
         <v>5622289</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5552817</v>
+        <v>5553215</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5689833</v>
+        <v>5690827</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7948916352732071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7850695385255727</v>
+        <v>0.7851257716939073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8044410675091811</v>
+        <v>0.804581616269139</v>
       </c>
     </row>
     <row r="24">
